--- a/data/HOV_Param.xlsx
+++ b/data/HOV_Param.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="HOV_Param" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="100">
   <si>
     <t>Аммиак хранение под давлением</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>Нитрил акриловой кислоты</t>
-  </si>
-  <si>
-    <t>0,75b</t>
   </si>
   <si>
     <t>Окислы азота</t>
@@ -1016,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2108,8 +2105,8 @@
       <c r="F18" s="1">
         <v>77.3</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>38</v>
+      <c r="G18" s="1">
+        <v>0.75</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2156,7 +2153,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -2218,7 +2215,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -2280,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>2.8999999999999998E-3</v>
@@ -2342,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1">
         <v>1.5E-3</v>
@@ -2404,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -2466,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -2528,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>23</v>
@@ -2590,7 +2587,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>23</v>
@@ -2652,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1">
         <v>3.5000000000000001E-3</v>
@@ -2714,7 +2711,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
         <v>1.6999999999999999E-3</v>
@@ -2776,7 +2773,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
@@ -2838,7 +2835,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>23</v>
@@ -2900,7 +2897,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>3.2000000000000002E-3</v>
@@ -2962,7 +2959,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
@@ -3024,7 +3021,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
         <v>2.0999999999999999E-3</v>
@@ -3086,7 +3083,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -3148,7 +3145,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -3210,7 +3207,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>23</v>
@@ -3703,7 +3700,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3724,7 +3721,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3816,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -3866,7 +3863,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -4034,137 +4031,137 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5">
         <v>0.01</v>
@@ -5147,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -5173,10 +5170,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>75</v>
@@ -5194,12 +5191,12 @@
         <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
@@ -5244,66 +5241,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5327,15 +5324,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>0.5</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
@@ -5351,7 +5348,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
@@ -5359,7 +5356,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>0.2</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>0.12</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
@@ -5383,7 +5380,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>0.02</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>12.5</v>
@@ -5407,7 +5404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5418,24 +5415,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>360</v>
